--- a/main/resource/线上学习-图论_1678767179837.xlsx
+++ b/main/resource/线上学习-图论_1678767179837.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -484,19 +484,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>最后邻接矩阵的n次方相乘那块还不太懂。其他的暂时没问题</t>
+          <t>图的概念比较多，容易混乱，和矩阵的联系不是很懂</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -544,115 +544,115 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>邻接矩阵比较难</t>
+          <t>矩阵表示图不太了解</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>给所有节点的度数，判断简单图的存在性感觉有点难想，就比如（1，1，3，3)，这个还算好点，我想知道是否有种统一的方法判断它是否存在</t>
+          <t>可达矩阵和关联矩阵知识点太多，还没有十分熟练理解</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同构的部分。</t>
+          <t>给所有节点的度数，判断简单图的存在性感觉有点难想，就比如（1，1，3，3)，这个还算好点，我想知道是否有种统一的方法判断它是否存在</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>图的同构的充要条件是什么；边，点，度之间的计算关系不是很理解</t>
+          <t>矩阵计算表示图那一部分不太理解</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>图的同构不太懂判定导出子图&amp;nbsp;生成子图？</t>
+          <t>矩阵那不太懂</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>图的同构不清晰&amp;nbsp; 请老师慢点讲</t>
+          <t>不是很懂使用矩阵判断强联通图的原理</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6的部分</t>
+          <t>临阶矩阵和可达矩阵不太懂</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>点割集和边割集不太理解。</t>
+          <t>6的部分</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>子图与补图不是很清楚</t>
+          <t>点割集和边割集不太理解。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -688,696 +688,696 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>导出子图</t>
+          <t>割集不是很清楚矩阵的证明吧，为什么有这样的性质连通的定理</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>概念太多做题分不清度的计算不清晰邻接矩阵的幂数不懂为什么我做了三次这个题它不给我保存，我甚至还中途保存，就怕出问题，还是不行，服了</t>
+          <t>各种图怎么区分和记忆？</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>各种图怎么区分和记忆？</t>
+          <t>回路和联通不是很理解</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>邻接矩阵和关联矩阵不太会</t>
+          <t>连通和割集那部分不是很明白</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>连通和割集那部分不是很明白</t>
+          <t>图的连接线不是很懂</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>图的连接线不是很懂</t>
+          <t>一些符号和名词难记难理解</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>一些符号和名词难记难理解</t>
+          <t>对图的分类</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1、点割集和边连通度不是很懂2、用邻接矩阵判断图的连通性的例题中为什么看的是B3，是因为一共有三个点吗?</t>
+          <t>n阶方体图怎么画(n＞3)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>同构和连通的概念不是很清晰</t>
+          <t>概念好多，不知道怎么整理</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>图的同构不太会判断</t>
+          <t>知识点多 要多记</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>同构的概念可以再细讲一下吗方体图概念也不清晰</t>
+          <t>可达矩阵有什么意义么</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>对图的分类</t>
+          <t>构成各种图的序数列的条件</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n阶方体图怎么画(n＞3)</t>
+          <t>高阶方体图不会画，一些符号和定义难记</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>概念好多，不知道怎么整理</t>
+          <t>点割集</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>知识点多 要多记</t>
+          <t>为什么都是求B3</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>构成各种图的序数列的条件</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>高阶方体图不会画，一些符号和定义难记</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>邻接矩阵，关联矩阵不太懂</t>
+          <t>带权图的意义?</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>点割集</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>为什么都是求B3</t>
+          <t>点格集</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,连通</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>子图和补图的概念不太懂</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>同构,邻接矩阵</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>无</t>
+          <t>学习完毕，无</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>通路</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>概念不是很清晰</t>
+          <t>通路和回路割补集</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>带权图的意义?</t>
+          <t>通路回路不理解</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>有没有好的方法简单判断同构</t>
+          <t>通路</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>基本回路是基本通路吗还叫有点多</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>点格集</t>
+          <t>容易判断简单图、完全图、正则图、二分图、轮图、环图、方体图比较难理解通路与回路，连通的概念</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>学习完毕，无</t>
+          <t>通路和回路的概念看不太明白，有点模糊</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>通路</t>
+          <t>二分图是什么，各种定义太多易记混</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>通路和回路割补集</t>
+          <t>学习内容太多，不能很好的将知识点联系在一起</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>通路回路不理解</t>
+          <t>度的相关公式不能灵活运用，所学概念太多，不能很熟悉。</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>通路</t>
+          <t>概念太多难以记住</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>基本回路是基本通路吗还叫有点多</t>
+          <t>概念太多做题分不清度的计算不清晰邻接矩阵的幂数不懂为什么我做了三次这个题它不给我保存，我甚至还中途保存，就怕出问题，还是不行，服了</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>通路和回路的概念看不太明白，有点模糊</t>
+          <t>概念太多，不知道为什么这些概念叫这个名字</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>太多,保存</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>图太多了</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>二分图是什么，各种定义太多易记混</t>
+          <t>概念太多容易混</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>学习内容太多，不能很好的将知识点联系在一起</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>太多,知识点</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>度的相关公式不能灵活运用，所学概念太多，不能很熟悉。</t>
+          <t>新概念太多记不住，图的表示概念混。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>邻接矩阵,关联矩阵</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>概念太多难以记住</t>
+          <t>最后邻接矩阵的n次方相乘那块还不太懂。其他的暂时没问题</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>邻接矩阵,关联矩阵</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>概念太多，不知道为什么这些概念叫这个名字</t>
+          <t>邻接矩阵比较难</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>邻接矩阵,关联矩阵</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>新概念太多记不住，图的表示概念混。</t>
+          <t>通过计算判断图的类型，运用邻接矩阵和关联矩阵和可达矩阵，还有它们之间的互相转换。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>邻接矩阵,关联矩阵</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>邻接矩阵和关联矩阵不太会</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>邻接矩阵,关联矩阵</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>图的概念比较多，容易混乱，和矩阵的联系不是很懂</t>
+          <t>1、点割集和边连通度不是很懂2、用邻接矩阵判断图的连通性的例题中为什么看的是B3，是因为一共有三个点吗?</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>邻接矩阵,关联矩阵</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>通过计算判断图的类型，运用邻接矩阵和关联矩阵和可达矩阵，还有它们之间的互相转换。</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>矩阵,判断</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>矩阵计算表示图那一部分不太理解</t>
+          <t>邻接矩阵，关联矩阵不太懂</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>不是很懂使用矩阵判断强联通图的原理</t>
+          <t>同构的部分。</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>可达矩阵有什么意义么</t>
+          <t>图的同构的充要条件是什么；边，点，度之间的计算关系不是很理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>同构,清晰</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>图的同构不清晰&amp;nbsp; 请老师慢点讲</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>矩阵,临阶</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>矩阵表示图不太了解</t>
+          <t>对同构条件中的回路数相等，具体有几个回路无法理解</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>矩阵,临阶</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>矩阵那不太懂</t>
+          <t>老师您好，我对用矩阵判断是否同构的部份不太理解。</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>矩阵,临阶</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>临阶矩阵和可达矩阵不太懂</t>
+          <t>同构和连通的概念不是很清晰</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>同构,清晰</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>图的同构不太会判断</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>可达矩阵和关联矩阵知识点太多，还没有十分熟练理解</t>
+          <t>同构的概念可以再细讲一下吗方体图概念也不清晰</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>对同构条件中的回路数相等，具体有几个回路无法理解</t>
+          <t>概念不是很清晰</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>老师您好，我对用矩阵判断是否同构的部份不太理解。</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>矩阵,回路</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>割集不是很清楚矩阵的证明吧，为什么有这样的性质连通的定理</t>
+          <t>有没有好的方法简单判断同构</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>子图,补图</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&amp;nbsp;不是非常理解理解子图、补图的概念对通路与回路的理解不深</t>
+          <t>图的同构不太懂判定导出子图&amp;nbsp;生成子图？</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>子图,补图</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>子图与补图不是很清楚</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>回路,二分</t>
+          <t>子图,补图</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>回路和联通不是很理解</t>
+          <t>导出子图</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>回路,二分</t>
+          <t>子图,补图</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>容易判断简单图、完全图、正则图、二分图、轮图、环图、方体图比较难理解通路与回路，连通的概念</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>太多</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>图太多了</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>太多</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>概念太多容易混</t>
+          <t>&amp;nbsp;不是非常理解理解子图、补图的概念对通路与回路的理解不深</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>子图,补图</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>子图和补图的概念不太懂</t>
         </is>
       </c>
     </row>

--- a/main/resource/线上学习-图论_1678767179837.xlsx
+++ b/main/resource/线上学习-图论_1678767179837.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -496,886 +496,886 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>一个图可以与其补图有重复的部分吗？</t>
+          <t>有好多理论我无法学明白，而且图的种类及名称也有点复杂</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>有好多理论我无法学明白，而且图的种类及名称也有点复杂</t>
+          <t>连通度相关概念不懂</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>连通度相关概念不懂</t>
+          <t>度的概念</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>度的概念</t>
+          <t>邻接矩阵比较难</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>邻接矩阵比较难</t>
+          <t>给所有节点的度数，判断简单图的存在性感觉有点难想，就比如（1，1，3，3)，这个还算好点，我想知道是否有种统一的方法判断它是否存在</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>给所有节点的度数，判断简单图的存在性感觉有点难想，就比如（1，1，3，3)，这个还算好点，我想知道是否有种统一的方法判断它是否存在</t>
+          <t>6的部分</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同构的部分。</t>
+          <t>点割集和边割集不太理解。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>图的同构的充要条件是什么；边，点，度之间的计算关系不是很理解</t>
+          <t>不太懂握手定理这部分</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>图的同构不太懂判定导出子图&amp;nbsp;生成子图？</t>
+          <t>连通分支那部分不是很明白</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>图的同构不清晰&amp;nbsp; 请老师慢点讲</t>
+          <t>1.怎样判断结点度数序列能否简单无向图化</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6的部分</t>
+          <t>各种图怎么区分和记忆？</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>点割集和边割集不太理解。</t>
+          <t>邻接矩阵和关联矩阵不太会</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>子图与补图不是很清楚</t>
+          <t>连通和割集那部分不是很明白</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>不太懂握手定理这部分</t>
+          <t>图的连接线不是很懂</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>连通分支那部分不是很明白</t>
+          <t>一些符号和名词难记难理解</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.怎样判断结点度数序列能否简单无向图化</t>
+          <t>1、点割集和边连通度不是很懂2、用邻接矩阵判断图的连通性的例题中为什么看的是B3，是因为一共有三个点吗?</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>导出子图</t>
+          <t>对图的分类</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>概念太多做题分不清度的计算不清晰邻接矩阵的幂数不懂为什么我做了三次这个题它不给我保存，我甚至还中途保存，就怕出问题，还是不行，服了</t>
+          <t>n阶方体图怎么画(n＞3)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>各种图怎么区分和记忆？</t>
+          <t>概念好多，不知道怎么整理</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>邻接矩阵和关联矩阵不太会</t>
+          <t>知识点多 要多记</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>连通和割集那部分不是很明白</t>
+          <t>构成各种图的序数列的条件</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>图的连接线不是很懂</t>
+          <t>高阶方体图不会画，一些符号和定义难记</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>一些符号和名词难记难理解</t>
+          <t>邻接矩阵，关联矩阵不太懂</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1、点割集和边连通度不是很懂2、用邻接矩阵判断图的连通性的例题中为什么看的是B3，是因为一共有三个点吗?</t>
+          <t>点割集</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>同构和连通的概念不是很清晰</t>
+          <t>为什么都是求B3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>图的同构不太会判断</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>同构的概念可以再细讲一下吗方体图概念也不清晰</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>对图的分类</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n阶方体图怎么画(n＞3)</t>
+          <t>点格集</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>邻接矩阵,判断</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>概念好多，不知道怎么整理</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>同构,邻接矩阵</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>知识点多 要多记</t>
+          <t>学习完毕，无</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>通路</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>构成各种图的序数列的条件</t>
+          <t>通路</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>通路</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>高阶方体图不会画，一些符号和定义难记</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>同构,邻接矩阵</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>邻接矩阵，关联矩阵不太懂</t>
+          <t>通路</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>太多,内容</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>点割集</t>
+          <t>二分图是什么，各种定义太多易记混</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>太多,内容</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>为什么都是求B3</t>
+          <t>学习内容太多，不能很好的将知识点联系在一起</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>太多,内容</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>子图和补图的概念不太懂</t>
+          <t>概念太多难以记住</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>太多,内容</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>无</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>同构,邻接矩阵</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>没有</t>
+          <t>概念太多，不知道为什么这些概念叫这个名字</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>概念不是很清晰</t>
+          <t>图的概念比较多，容易混乱，和矩阵的联系不是很懂</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>带权图的意义?</t>
+          <t>一个图可以与其补图有重复的部分吗？</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>有没有好的方法简单判断同构</t>
+          <t>可达矩阵和关联矩阵知识点太多，还没有十分熟练理解</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>图的同构的充要条件是什么；边，点，度之间的计算关系不是很理解</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>点格集</t>
+          <t>图的同构不太懂判定导出子图&amp;nbsp;生成子图？</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>同构,邻接矩阵</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>学习完毕，无</t>
+          <t>通过计算判断图的类型，运用邻接矩阵和关联矩阵和可达矩阵，还有它们之间的互相转换。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>矩阵,同构</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>矩阵计算表示图那一部分不太理解</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>通路</t>
+          <t>对同构条件中的回路数相等，具体有几个回路无法理解</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>通路和回路割补集</t>
+          <t>度的相关公式不能灵活运用，所学概念太多，不能很熟悉。</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>通路回路不理解</t>
+          <t>不是很懂使用矩阵判断强联通图的原理</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>通路</t>
+          <t>老师您好，我对用矩阵判断是否同构的部份不太理解。</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>基本回路是基本通路吗还叫有点多</t>
+          <t>临阶矩阵和可达矩阵不太懂</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>通路和回路的概念看不太明白，有点模糊</t>
+          <t>割集不是很清楚矩阵的证明吧，为什么有这样的性质连通的定理</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>矩阵,同构</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>导出子图</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>二分图是什么，各种定义太多易记混</t>
+          <t>概念太多做题分不清度的计算不清晰邻接矩阵的幂数不懂为什么我做了三次这个题它不给我保存，我甚至还中途保存，就怕出问题，还是不行，服了</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>学习内容太多，不能很好的将知识点联系在一起</t>
+          <t>回路和联通不是很理解</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>度的相关公式不能灵活运用，所学概念太多，不能很熟悉。</t>
+          <t>图的同构不太会判断</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>概念太多难以记住</t>
+          <t>容易判断简单图、完全图、正则图、二分图、轮图、环图、方体图比较难理解通路与回路，连通的概念</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>概念太多，不知道为什么这些概念叫这个名字</t>
+          <t>新概念太多记不住，图的表示概念混。</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>新概念太多记不住，图的表示概念混。</t>
+          <t>可达矩阵有什么意义么</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>矩阵,同构</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>&amp;nbsp;不是非常理解理解子图、补图的概念对通路与回路的理解不深</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>图的概念比较多，容易混乱，和矩阵的联系不是很懂</t>
+          <t>概念不是很清晰</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>通过计算判断图的类型，运用邻接矩阵和关联矩阵和可达矩阵，还有它们之间的互相转换。</t>
+          <t>带权图的意义?</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>矩阵,同构</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>矩阵计算表示图那一部分不太理解</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>矩阵,判断</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>不是很懂使用矩阵判断强联通图的原理</t>
+          <t>有没有好的方法简单判断同构</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>回路,通路</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>可达矩阵有什么意义么</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>矩阵,临阶</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>矩阵表示图不太了解</t>
+          <t>通路和回路割补集</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>回路,通路</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>通路和回路的概念看不太明白，有点模糊</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>矩阵,临阶</t>
+          <t>矩阵</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>矩阵那不太懂</t>
+          <t>矩阵表示图不太了解</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>矩阵,临阶</t>
+          <t>矩阵</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>临阶矩阵和可达矩阵不太懂</t>
+          <t>矩阵那不太懂</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>回路,通路</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>可达矩阵和关联矩阵知识点太多，还没有十分熟练理解</t>
+          <t>通路回路不理解</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>回路,通路</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>对同构条件中的回路数相等，具体有几个回路无法理解</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>矩阵,回路</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>老师您好，我对用矩阵判断是否同构的部份不太理解。</t>
+          <t>基本回路是基本通路吗还叫有点多</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>同构,连通</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>割集不是很清楚矩阵的证明吧，为什么有这样的性质连通的定理</t>
+          <t>同构的部分。</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>同构,连通</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>&amp;nbsp;不是非常理解理解子图、补图的概念对通路与回路的理解不深</t>
+          <t>同构和连通的概念不是很清晰</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>回路,二分</t>
+          <t>清晰,同构</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>回路和联通不是很理解</t>
+          <t>图的同构不清晰&amp;nbsp; 请老师慢点讲</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>回路,二分</t>
+          <t>清晰,同构</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>容易判断简单图、完全图、正则图、二分图、轮图、环图、方体图比较难理解通路与回路，连通的概念</t>
+          <t>同构的概念可以再细讲一下吗方体图概念也不清晰</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>太多</t>
+          <t>子图,补图</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>图太多了</t>
+          <t>子图与补图不是很清楚</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>子图,补图</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>子图和补图的概念不太懂</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>太多</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>图太多了</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>太多</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>概念太多容易混</t>
         </is>

--- a/main/resource/线上学习-图论_1678767179837.xlsx
+++ b/main/resource/线上学习-图论_1678767179837.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Questions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,7 +448,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -568,646 +568,658 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同构的部分。</t>
+          <t>6的部分</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>图的同构的充要条件是什么；边，点，度之间的计算关系不是很理解</t>
+          <t>点割集和边割集不太理解。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>图的同构不太懂判定导出子图&amp;nbsp;生成子图？</t>
+          <t>不太懂握手定理这部分</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>图的同构不清晰&amp;nbsp; 请老师慢点讲</t>
+          <t>连通分支那部分不是很明白</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6的部分</t>
+          <t>1.怎样判断结点度数序列能否简单无向图化</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>点割集和边割集不太理解。</t>
+          <t>割集不是很清楚矩阵的证明吧，为什么有这样的性质连通的定理</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>子图与补图不是很清楚</t>
+          <t>各种图怎么区分和记忆？</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>不太懂握手定理这部分</t>
+          <t>连通和割集那部分不是很明白</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>连通分支那部分不是很明白</t>
+          <t>图的连接线不是很懂</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.怎样判断结点度数序列能否简单无向图化</t>
+          <t>一些符号和名词难记难理解</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>导出子图</t>
+          <t>1、点割集和边连通度不是很懂2、用邻接矩阵判断图的连通性的例题中为什么看的是B3，是因为一共有三个点吗?</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>概念太多做题分不清度的计算不清晰邻接矩阵的幂数不懂为什么我做了三次这个题它不给我保存，我甚至还中途保存，就怕出问题，还是不行，服了</t>
+          <t>对图的分类</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>各种图怎么区分和记忆？</t>
+          <t>n阶方体图怎么画(n＞3)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>邻接矩阵和关联矩阵不太会</t>
+          <t>概念好多，不知道怎么整理</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>连通和割集那部分不是很明白</t>
+          <t>知识点多 要多记</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>图的连接线不是很懂</t>
+          <t>构成各种图的序数列的条件</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>一些符号和名词难记难理解</t>
+          <t>高阶方体图不会画，一些符号和定义难记</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1、点割集和边连通度不是很懂2、用邻接矩阵判断图的连通性的例题中为什么看的是B3，是因为一共有三个点吗?</t>
+          <t>点割集</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>同构和连通的概念不是很清晰</t>
+          <t>为什么都是求B3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>图的同构不太会判断</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>同构的概念可以再细讲一下吗方体图概念也不清晰</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>对图的分类</t>
+          <t>带权图的意义?</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n阶方体图怎么画(n＞3)</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>概念好多，不知道怎么整理</t>
+          <t>点格集</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>连通,判断</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>知识点多 要多记</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>同构,判断</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>构成各种图的序数列的条件</t>
+          <t>学习完毕，无</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>高阶方体图不会画，一些符号和定义难记</t>
+          <t>通路</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>邻接矩阵，关联矩阵不太懂</t>
+          <t>通路和回路割补集</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>点割集</t>
+          <t>通路回路不理解</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>为什么都是求B3</t>
+          <t>对同构条件中的回路数相等，具体有几个回路无法理解</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>子图和补图的概念不太懂</t>
+          <t>回路和联通不是很理解</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>通路</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>基本回路是基本通路吗还叫有点多</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>概念不是很清晰</t>
+          <t>容易判断简单图、完全图、正则图、二分图、轮图、环图、方体图比较难理解通路与回路，连通的概念</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>带权图的意义?</t>
+          <t>&amp;nbsp;不是非常理解理解子图、补图的概念对通路与回路的理解不深</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>有没有好的方法简单判断同构</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>同构,判断</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>没有</t>
+          <t>通路和回路的概念看不太明白，有点模糊</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>点格集</t>
+          <t>二分图是什么，各种定义太多易记混</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>同构,判断</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>学习完毕，无</t>
+          <t>学习内容太多，不能很好的将知识点联系在一起</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>太多,保存</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>度的相关公式不能灵活运用，所学概念太多，不能很熟悉。</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>通路</t>
+          <t>概念太多难以记住</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>通路和回路割补集</t>
+          <t>概念太多做题分不清度的计算不清晰邻接矩阵的幂数不懂为什么我做了三次这个题它不给我保存，我甚至还中途保存，就怕出问题，还是不行，服了</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>通路</t>
+          <t>概念太多，不知道为什么这些概念叫这个名字</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>通路和回路的概念看不太明白，有点模糊</t>
+          <t>图太多了</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>太多,保存</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>概念太多容易混</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>二分图是什么，各种定义太多易记混</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>太多,知识点</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>学习内容太多，不能很好的将知识点联系在一起</t>
+          <t>新概念太多记不住，图的表示概念混。</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>度的相关公式不能灵活运用，所学概念太多，不能很熟悉。</t>
+          <t>图的概念比较多，容易混乱，和矩阵的联系不是很懂</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>概念太多难以记住</t>
+          <t>矩阵表示图不太了解</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>概念太多，不知道为什么这些概念叫这个名字</t>
+          <t>可达矩阵和关联矩阵知识点太多，还没有十分熟练理解</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>太多,知识点</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>新概念太多记不住，图的表示概念混。</t>
+          <t>通过计算判断图的类型，运用邻接矩阵和关联矩阵和可达矩阵，还有它们之间的互相转换。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>矩阵,可达</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>矩阵计算表示图那一部分不太理解</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>图的概念比较多，容易混乱，和矩阵的联系不是很懂</t>
+          <t>矩阵那不太懂</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>通过计算判断图的类型，运用邻接矩阵和关联矩阵和可达矩阵，还有它们之间的互相转换。</t>
+          <t>不是很懂使用矩阵判断强联通图的原理</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>矩阵计算表示图那一部分不太理解</t>
+          <t>老师您好，我对用矩阵判断是否同构的部份不太理解。</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>不是很懂使用矩阵判断强联通图的原理</t>
+          <t>临阶矩阵和可达矩阵不太懂</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>矩阵,判断</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
+        <is>
+          <t>邻接矩阵和关联矩阵不太会</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>矩阵,可达</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>可达矩阵有什么意义么</t>
         </is>
@@ -1216,168 +1228,156 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>矩阵,临阶</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>矩阵表示图不太了解</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>矩阵,临阶</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>矩阵那不太懂</t>
+          <t>邻接矩阵，关联矩阵不太懂</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>矩阵,临阶</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>临阶矩阵和可达矩阵不太懂</t>
+          <t>同构的部分。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>同构,清晰</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>图的同构的充要条件是什么；边，点，度之间的计算关系不是很理解</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>回路,通路</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>通路回路不理解</t>
+          <t>图的同构不清晰&amp;nbsp; 请老师慢点讲</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>回路,通路</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>基本回路是基本通路吗还叫有点多</t>
+          <t>同构和连通的概念不是很清晰</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>同构,清晰</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>图的同构不太会判断</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>可达矩阵和关联矩阵知识点太多，还没有十分熟练理解</t>
+          <t>同构的概念可以再细讲一下吗方体图概念也不清晰</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>对同构条件中的回路数相等，具体有几个回路无法理解</t>
+          <t>概念不是很清晰</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>同构,清晰</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>老师您好，我对用矩阵判断是否同构的部份不太理解。</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>矩阵,回路</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>割集不是很清楚矩阵的证明吧，为什么有这样的性质连通的定理</t>
+          <t>有没有好的方法简单判断同构</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>矩阵,回路</t>
+          <t>子图,补图</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>&amp;nbsp;不是非常理解理解子图、补图的概念对通路与回路的理解不深</t>
+          <t>图的同构不太懂判定导出子图&amp;nbsp;生成子图？</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>子图,补图</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>子图与补图不是很清楚</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>回路,二分</t>
+          <t>子图,补图</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>回路和联通不是很理解</t>
+          <t>导出子图</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>回路,二分</t>
+          <t>子图,补图</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>容易判断简单图、完全图、正则图、二分图、轮图、环图、方体图比较难理解通路与回路，连通的概念</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>太多</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>图太多了</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>太多</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>概念太多容易混</t>
+          <t>子图和补图的概念不太懂</t>
         </is>
       </c>
     </row>

--- a/main/resource/线上学习-图论_1678767179837.xlsx
+++ b/main/resource/线上学习-图论_1678767179837.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Questions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +436,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>连通,割集</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -448,480 +448,468 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>连通,割集</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>概念实在太多了 记不太住，而且不能理解到位</t>
+          <t>关于点连通度和边连通度的知识点在书上没找到</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>连通,割集</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>关于点连通度和边连通度的知识点在书上没找到</t>
+          <t>连通度相关概念不懂</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>连通,割集</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>为什么两个图的节点与边有一一对应关系是两个图同构的必要条件</t>
+          <t>连通和割集那部分不是很明白</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>连通,割集</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>最后邻接矩阵的n次方相乘那块还不太懂。其他的暂时没问题</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>连通,判断</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>一个图可以与其补图有重复的部分吗？</t>
+          <t>同构和连通的概念不是很清晰</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>有好多理论我无法学明白，而且图的种类及名称也有点复杂</t>
+          <t>概念实在太多了 记不太住，而且不能理解到位</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>连通度相关概念不懂</t>
+          <t>为什么两个图的节点与边有一一对应关系是两个图同构的必要条件</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>度的概念</t>
+          <t>最后邻接矩阵的n次方相乘那块还不太懂。其他的暂时没问题</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>邻接矩阵比较难</t>
+          <t>一个图可以与其补图有重复的部分吗？</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>给所有节点的度数，判断简单图的存在性感觉有点难想，就比如（1，1，3，3)，这个还算好点，我想知道是否有种统一的方法判断它是否存在</t>
+          <t>有好多理论我无法学明白，而且图的种类及名称也有点复杂</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6的部分</t>
+          <t>度的概念</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>点割集和边割集不太理解。</t>
+          <t>邻接矩阵比较难</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>不太懂握手定理这部分</t>
+          <t>图的同构不太懂判定导出子图&amp;nbsp;生成子图？</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>连通分支那部分不是很明白</t>
+          <t>6的部分</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.怎样判断结点度数序列能否简单无向图化</t>
+          <t>点割集和边割集不太理解。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>割集不是很清楚矩阵的证明吧，为什么有这样的性质连通的定理</t>
+          <t>子图与补图不是很清楚</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>各种图怎么区分和记忆？</t>
+          <t>不太懂握手定理这部分</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>连通和割集那部分不是很明白</t>
+          <t>连通分支那部分不是很明白</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>图的连接线不是很懂</t>
+          <t>导出子图</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>一些符号和名词难记难理解</t>
+          <t>各种图怎么区分和记忆？</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1、点割集和边连通度不是很懂2、用邻接矩阵判断图的连通性的例题中为什么看的是B3，是因为一共有三个点吗?</t>
+          <t>邻接矩阵和关联矩阵不太会</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>对图的分类</t>
+          <t>图的连接线不是很懂</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>n阶方体图怎么画(n＞3)</t>
+          <t>一些符号和名词难记难理解</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>概念好多，不知道怎么整理</t>
+          <t>对图的分类</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>知识点多 要多记</t>
+          <t>n阶方体图怎么画(n＞3)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>构成各种图的序数列的条件</t>
+          <t>概念好多，不知道怎么整理</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>高阶方体图不会画，一些符号和定义难记</t>
+          <t>知识点多 要多记</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>点割集</t>
+          <t>构成各种图的序数列的条件</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>为什么都是求B3</t>
+          <t>高阶方体图不会画，一些符号和定义难记</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>邻接矩阵，关联矩阵不太懂</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>点割集</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>带权图的意义?</t>
+          <t>为什么都是求B3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>没有</t>
+          <t>子图和补图的概念不太懂</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>点格集</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>连通,判断</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>学习完毕，无</t>
+          <t>没有</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>子图,邻接矩阵</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>概念不是很清晰</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>通路</t>
+          <t>带权图的意义?</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>通路和回路割补集</t>
+          <t>没有</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>通路回路不理解</t>
+          <t>点格集</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>通路,回路</t>
+          <t>子图,邻接矩阵</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>对同构条件中的回路数相等，具体有几个回路无法理解</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>通路,回路</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>回路和联通不是很理解</t>
+          <t>学习完毕，无</t>
         </is>
       </c>
     </row>
@@ -945,7 +933,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>基本回路是基本通路吗还叫有点多</t>
+          <t>通路和回路割补集</t>
         </is>
       </c>
     </row>
@@ -957,7 +945,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>容易判断简单图、完全图、正则图、二分图、轮图、环图、方体图比较难理解通路与回路，连通的概念</t>
+          <t>通路回路不理解</t>
         </is>
       </c>
     </row>
@@ -969,7 +957,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>&amp;nbsp;不是非常理解理解子图、补图的概念对通路与回路的理解不深</t>
+          <t>对同构条件中的回路数相等，具体有几个回路无法理解</t>
         </is>
       </c>
     </row>
@@ -981,67 +969,67 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>通路和回路的概念看不太明白，有点模糊</t>
+          <t>回路和联通不是很理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>通路,回路</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>通路</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>太多,保存</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>二分图是什么，各种定义太多易记混</t>
+          <t>基本回路是基本通路吗还叫有点多</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>太多,保存</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>学习内容太多，不能很好的将知识点联系在一起</t>
+          <t>容易判断简单图、完全图、正则图、二分图、轮图、环图、方体图比较难理解通路与回路，连通的概念</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>太多,保存</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>度的相关公式不能灵活运用，所学概念太多，不能很熟悉。</t>
+          <t>&amp;nbsp;不是非常理解理解子图、补图的概念对通路与回路的理解不深</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>太多,保存</t>
+          <t>通路,回路</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>概念太多难以记住</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>太多,保存</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>概念太多做题分不清度的计算不清晰邻接矩阵的幂数不懂为什么我做了三次这个题它不给我保存，我甚至还中途保存，就怕出问题，还是不行，服了</t>
+          <t>通路和回路的概念看不太明白，有点模糊</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1041,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>概念太多，不知道为什么这些概念叫这个名字</t>
+          <t>二分图是什么，各种定义太多易记混</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1053,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>图太多了</t>
+          <t>学习内容太多，不能很好的将知识点联系在一起</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1065,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>概念太多容易混</t>
+          <t>度的相关公式不能灵活运用，所学概念太多，不能很熟悉。</t>
         </is>
       </c>
     </row>
@@ -1089,67 +1077,67 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>新概念太多记不住，图的表示概念混。</t>
+          <t>概念太多难以记住</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>太多,保存</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>概念太多做题分不清度的计算不清晰邻接矩阵的幂数不懂为什么我做了三次这个题它不给我保存，我甚至还中途保存，就怕出问题，还是不行，服了</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>矩阵,可达</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>图的概念比较多，容易混乱，和矩阵的联系不是很懂</t>
+          <t>概念太多，不知道为什么这些概念叫这个名字</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>矩阵,可达</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>矩阵表示图不太了解</t>
+          <t>图太多了</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>矩阵,可达</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>可达矩阵和关联矩阵知识点太多，还没有十分熟练理解</t>
+          <t>概念太多容易混</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>矩阵,可达</t>
+          <t>太多,保存</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>通过计算判断图的类型，运用邻接矩阵和关联矩阵和可达矩阵，还有它们之间的互相转换。</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>矩阵,可达</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>矩阵计算表示图那一部分不太理解</t>
+          <t>新概念太多记不住，图的表示概念混。</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1149,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>矩阵那不太懂</t>
+          <t>图的概念比较多，容易混乱，和矩阵的联系不是很懂</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1161,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>不是很懂使用矩阵判断强联通图的原理</t>
+          <t>矩阵表示图不太了解</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1173,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>老师您好，我对用矩阵判断是否同构的部份不太理解。</t>
+          <t>可达矩阵和关联矩阵知识点太多，还没有十分熟练理解</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1185,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>临阶矩阵和可达矩阵不太懂</t>
+          <t>通过计算判断图的类型，运用邻接矩阵和关联矩阵和可达矩阵，还有它们之间的互相转换。</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1197,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>邻接矩阵和关联矩阵不太会</t>
+          <t>矩阵计算表示图那一部分不太理解</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1209,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>可达矩阵有什么意义么</t>
+          <t>矩阵那不太懂</t>
         </is>
       </c>
     </row>
@@ -1233,151 +1221,163 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>邻接矩阵，关联矩阵不太懂</t>
+          <t>不是很懂使用矩阵判断强联通图的原理</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>矩阵,可达</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>临阶矩阵和可达矩阵不太懂</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>同构,清晰</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>同构的部分。</t>
+          <t>割集不是很清楚矩阵的证明吧，为什么有这样的性质连通的定理</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>同构,清晰</t>
+          <t>矩阵,可达</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>图的同构的充要条件是什么；边，点，度之间的计算关系不是很理解</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>同构,清晰</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>图的同构不清晰&amp;nbsp; 请老师慢点讲</t>
+          <t>可达矩阵有什么意义么</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>同构,清晰</t>
+          <t>判断,同构</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>同构和连通的概念不是很清晰</t>
+          <t>给所有节点的度数，判断简单图的存在性感觉有点难想，就比如（1，1，3，3)，这个还算好点，我想知道是否有种统一的方法判断它是否存在</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>同构,清晰</t>
+          <t>判断,同构</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>图的同构不太会判断</t>
+          <t>同构的部分。</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>同构,清晰</t>
+          <t>判断,同构</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>同构的概念可以再细讲一下吗方体图概念也不清晰</t>
+          <t>图的同构的充要条件是什么；边，点，度之间的计算关系不是很理解</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>同构,清晰</t>
+          <t>判断,同构</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>概念不是很清晰</t>
+          <t>图的同构不清晰&amp;nbsp; 请老师慢点讲</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>同构,清晰</t>
+          <t>判断,同构</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>有没有好的方法简单判断同构</t>
+          <t>老师您好，我对用矩阵判断是否同构的部份不太理解。</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>判断,同构</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1.怎样判断结点度数序列能否简单无向图化</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>子图,补图</t>
+          <t>判断,同构</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>图的同构不太懂判定导出子图&amp;nbsp;生成子图？</t>
+          <t>1、点割集和边连通度不是很懂2、用邻接矩阵判断图的连通性的例题中为什么看的是B3，是因为一共有三个点吗?</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>子图,补图</t>
+          <t>判断,同构</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>子图与补图不是很清楚</t>
+          <t>图的同构不太会判断</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>子图,补图</t>
+          <t>判断,同构</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>导出子图</t>
+          <t>同构的概念可以再细讲一下吗方体图概念也不清晰</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>子图,补图</t>
+          <t>判断,同构</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>子图和补图的概念不太懂</t>
+          <t>有没有好的方法简单判断同构</t>
         </is>
       </c>
     </row>
